--- a/BackTest/2019-10-31 BackTest FX.xlsx
+++ b/BackTest/2019-10-31 BackTest FX.xlsx
@@ -3426,17 +3426,13 @@
         <v>130</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>130</v>
-      </c>
-      <c r="K87" t="n">
-        <v>130</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
@@ -3465,104 +3461,96 @@
         <v>130</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>131</v>
+      </c>
+      <c r="C89" t="n">
+        <v>131</v>
+      </c>
+      <c r="D89" t="n">
+        <v>131</v>
+      </c>
+      <c r="E89" t="n">
+        <v>131</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" t="n">
+        <v>130.3333333333333</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
         <v>130</v>
       </c>
-      <c r="K88" t="n">
+      <c r="K89" t="n">
         <v>130</v>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>131</v>
+      </c>
+      <c r="C90" t="n">
+        <v>131</v>
+      </c>
+      <c r="D90" t="n">
+        <v>131</v>
+      </c>
+      <c r="E90" t="n">
+        <v>131</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2083.6582</v>
+      </c>
+      <c r="G90" t="n">
+        <v>130.6666666666667</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>131</v>
+      </c>
+      <c r="K90" t="n">
+        <v>130</v>
+      </c>
+      <c r="L90" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>131</v>
-      </c>
-      <c r="C89" t="n">
-        <v>131</v>
-      </c>
-      <c r="D89" t="n">
-        <v>131</v>
-      </c>
-      <c r="E89" t="n">
-        <v>131</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1</v>
-      </c>
-      <c r="G89" t="n">
-        <v>130.3333333333333</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>131</v>
-      </c>
-      <c r="K89" t="n">
-        <v>130</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>131</v>
-      </c>
-      <c r="C90" t="n">
-        <v>131</v>
-      </c>
-      <c r="D90" t="n">
-        <v>131</v>
-      </c>
-      <c r="E90" t="n">
-        <v>131</v>
-      </c>
-      <c r="F90" t="n">
-        <v>2083.6582</v>
-      </c>
-      <c r="G90" t="n">
-        <v>130.6666666666667</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>131</v>
-      </c>
-      <c r="K90" t="n">
-        <v>131</v>
-      </c>
-      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3596,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K91" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3633,22 +3621,14 @@
         <v>131</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>131</v>
-      </c>
-      <c r="K92" t="n">
-        <v>131</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3676,22 +3656,14 @@
         <v>130.3333333333333</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>129</v>
-      </c>
-      <c r="K93" t="n">
-        <v>131</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3719,22 +3691,14 @@
         <v>129.6666666666667</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>130</v>
-      </c>
-      <c r="K94" t="n">
-        <v>131</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3762,22 +3726,14 @@
         <v>129.3333333333333</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>129</v>
-      </c>
-      <c r="K95" t="n">
-        <v>131</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3805,22 +3761,14 @@
         <v>129.3333333333333</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>129</v>
-      </c>
-      <c r="K96" t="n">
-        <v>131</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3848,22 +3796,14 @@
         <v>129</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>130</v>
-      </c>
-      <c r="K97" t="n">
-        <v>131</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3891,22 +3831,14 @@
         <v>129</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>129</v>
-      </c>
-      <c r="K98" t="n">
-        <v>131</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3934,22 +3866,14 @@
         <v>129.3333333333333</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>130</v>
-      </c>
-      <c r="K99" t="n">
-        <v>131</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3977,22 +3901,14 @@
         <v>129.6666666666667</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>130</v>
-      </c>
-      <c r="K100" t="n">
-        <v>131</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4020,22 +3936,14 @@
         <v>129.6666666666667</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>129</v>
-      </c>
-      <c r="K101" t="n">
-        <v>131</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4063,22 +3971,14 @@
         <v>129.6666666666667</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>129</v>
-      </c>
-      <c r="K102" t="n">
-        <v>131</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4106,22 +4006,14 @@
         <v>129.6666666666667</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>130</v>
-      </c>
-      <c r="K103" t="n">
-        <v>131</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4149,22 +4041,14 @@
         <v>130.3333333333333</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>131</v>
-      </c>
-      <c r="K104" t="n">
-        <v>131</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4192,22 +4076,14 @@
         <v>131</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>132</v>
-      </c>
-      <c r="K105" t="n">
-        <v>131</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4235,22 +4111,14 @@
         <v>131.6666666666667</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>132</v>
-      </c>
-      <c r="K106" t="n">
-        <v>131</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4278,22 +4146,14 @@
         <v>132</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>131</v>
-      </c>
-      <c r="K107" t="n">
-        <v>131</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4321,22 +4181,14 @@
         <v>132</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>132</v>
-      </c>
-      <c r="K108" t="n">
-        <v>131</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4364,22 +4216,14 @@
         <v>132</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>132</v>
-      </c>
-      <c r="K109" t="n">
-        <v>131</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4407,22 +4251,14 @@
         <v>132</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>132</v>
-      </c>
-      <c r="K110" t="n">
-        <v>131</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4450,22 +4286,14 @@
         <v>131.6666666666667</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>131</v>
-      </c>
-      <c r="K111" t="n">
-        <v>131</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4493,22 +4321,14 @@
         <v>131.3333333333333</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>131</v>
-      </c>
-      <c r="K112" t="n">
-        <v>131</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4536,22 +4356,14 @@
         <v>131</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>131</v>
-      </c>
-      <c r="K113" t="n">
-        <v>131</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4579,22 +4391,14 @@
         <v>130.6666666666667</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>130</v>
-      </c>
-      <c r="K114" t="n">
-        <v>131</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4622,22 +4426,14 @@
         <v>131</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>132</v>
-      </c>
-      <c r="K115" t="n">
-        <v>131</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4665,22 +4461,14 @@
         <v>130.6666666666667</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>130</v>
-      </c>
-      <c r="K116" t="n">
-        <v>131</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4708,22 +4496,14 @@
         <v>130.6666666666667</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>130</v>
-      </c>
-      <c r="K117" t="n">
-        <v>131</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4751,22 +4531,14 @@
         <v>130</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>130</v>
-      </c>
-      <c r="K118" t="n">
-        <v>131</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4794,22 +4566,14 @@
         <v>130</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>130</v>
-      </c>
-      <c r="K119" t="n">
-        <v>131</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4837,22 +4601,14 @@
         <v>130</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>130</v>
-      </c>
-      <c r="K120" t="n">
-        <v>131</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4880,22 +4636,14 @@
         <v>129.6666666666667</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>130</v>
-      </c>
-      <c r="K121" t="n">
-        <v>131</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4923,22 +4671,14 @@
         <v>129.6666666666667</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>130</v>
-      </c>
-      <c r="K122" t="n">
-        <v>131</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4966,22 +4706,14 @@
         <v>129.6666666666667</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>130</v>
-      </c>
-      <c r="K123" t="n">
-        <v>131</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5009,22 +4741,14 @@
         <v>130.6666666666667</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>132</v>
-      </c>
-      <c r="K124" t="n">
-        <v>131</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5052,22 +4776,14 @@
         <v>132.6666666666667</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>132</v>
-      </c>
-      <c r="K125" t="n">
-        <v>131</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5095,22 +4811,14 @@
         <v>134.3333333333333</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>135</v>
-      </c>
-      <c r="K126" t="n">
-        <v>131</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5144,14 +4852,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>131</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5185,14 +4887,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>131</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5226,14 +4922,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>131</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5267,14 +4957,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>131</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5308,14 +4992,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>131</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5349,14 +5027,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>131</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5390,14 +5062,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>131</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5431,14 +5097,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>131</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5472,14 +5132,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>131</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5513,14 +5167,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>131</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5554,14 +5202,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>131</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5592,17 +5234,11 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>131</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5633,17 +5269,11 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>131</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5677,14 +5307,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>131</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5718,14 +5342,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>131</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5759,14 +5377,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>131</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5800,14 +5412,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>131</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5841,14 +5447,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>131</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5882,14 +5482,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>131</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5923,14 +5517,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>131</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5964,14 +5552,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>131</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6005,14 +5587,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>131</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6046,14 +5622,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>131</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6087,14 +5657,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>131</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6128,14 +5692,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>131</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6169,14 +5727,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>131</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6210,14 +5762,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>131</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6251,14 +5797,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>131</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6292,14 +5832,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>131</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6333,14 +5867,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>131</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6374,14 +5902,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>131</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6415,14 +5937,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>131</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6456,14 +5972,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>131</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6497,14 +6007,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>131</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6538,14 +6042,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>131</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6579,14 +6077,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>131</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6620,14 +6112,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>131</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6661,14 +6147,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>131</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6702,14 +6182,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>131</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6743,14 +6217,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>131</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6784,14 +6252,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>131</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6825,14 +6287,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>131</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6866,14 +6322,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>131</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6907,14 +6357,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>131</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6948,14 +6392,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>131</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6989,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>131</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7030,14 +6462,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>131</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7071,14 +6497,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>131</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7112,14 +6532,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>131</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7153,14 +6567,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>131</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7194,14 +6602,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>131</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7235,14 +6637,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>131</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7276,14 +6672,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>131</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7317,14 +6707,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>131</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7358,14 +6742,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>131</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7399,14 +6777,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>131</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7440,14 +6812,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>131</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7481,14 +6847,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>131</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7522,14 +6882,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>131</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7563,14 +6917,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>131</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7604,14 +6952,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>131</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7645,14 +6987,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>131</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7686,14 +7022,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>131</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7727,14 +7057,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>131</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7768,14 +7092,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>131</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7809,14 +7127,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>131</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7850,14 +7162,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>131</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7891,14 +7197,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>131</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7932,14 +7232,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>131</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7973,14 +7267,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>131</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8014,14 +7302,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>131</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8055,14 +7337,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>131</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8096,14 +7372,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>131</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8137,14 +7407,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>131</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8178,14 +7442,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>131</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8219,14 +7477,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>131</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8260,14 +7512,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>131</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8301,14 +7547,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>131</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8342,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>131</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8383,14 +7617,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>131</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8424,14 +7652,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>131</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8465,14 +7687,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>131</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8506,14 +7722,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>131</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8547,14 +7757,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>131</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8588,14 +7792,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>131</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8629,14 +7827,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>131</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8670,14 +7862,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>131</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8711,14 +7897,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>131</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8752,14 +7932,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>131</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8793,14 +7967,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>131</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8834,14 +8002,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>131</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8875,14 +8037,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>131</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8916,14 +8072,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>131</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8957,14 +8107,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>131</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8998,14 +8142,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>131</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9039,14 +8177,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>131</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9080,14 +8212,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>131</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9121,14 +8247,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>131</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9162,14 +8282,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>131</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9203,14 +8317,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>131</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9244,14 +8352,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>131</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9285,14 +8387,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>131</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9326,14 +8422,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>131</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9367,14 +8457,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>131</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9408,14 +8492,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>131</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9449,14 +8527,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>131</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9490,14 +8562,8 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>131</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9531,14 +8597,8 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>131</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9572,14 +8632,8 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>131</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9613,14 +8667,8 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>131</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9654,14 +8702,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>131</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9695,14 +8737,8 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>131</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9736,14 +8772,8 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>131</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9777,14 +8807,8 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>131</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9818,14 +8842,8 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>131</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9859,14 +8877,8 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>131</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9900,14 +8912,8 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>131</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9941,14 +8947,8 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>131</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9982,14 +8982,8 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>131</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -10023,14 +9017,8 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>131</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -10064,14 +9052,8 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>131</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -10105,14 +9087,8 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>131</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10146,14 +9122,8 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>131</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10187,14 +9157,8 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>131</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10228,14 +9192,8 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>131</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10269,14 +9227,8 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>131</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10310,14 +9262,8 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>131</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10351,14 +9297,8 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>131</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10392,14 +9332,8 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>131</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10433,14 +9367,8 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>131</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10474,14 +9402,8 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>131</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10515,14 +9437,8 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>131</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10556,14 +9472,8 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>131</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10597,14 +9507,8 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>131</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10638,14 +9542,8 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>131</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10679,14 +9577,8 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>131</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10720,14 +9612,8 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>131</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10761,14 +9647,8 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>131</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10802,14 +9682,8 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>131</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10843,14 +9717,8 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>131</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10884,14 +9752,8 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>131</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10925,14 +9787,8 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>131</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10966,14 +9822,8 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>131</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -11007,14 +9857,8 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>131</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -11048,14 +9892,8 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>131</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -11089,14 +9927,8 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>131</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -11130,14 +9962,8 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>131</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -11171,14 +9997,8 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>131</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -11212,14 +10032,8 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>131</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -11253,14 +10067,8 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>131</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -11294,14 +10102,8 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>131</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -11335,14 +10137,8 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>131</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -11376,14 +10172,8 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>131</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -11417,14 +10207,8 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>131</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -11458,14 +10242,8 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>131</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11499,14 +10277,8 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>131</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11540,14 +10312,8 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>131</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11581,14 +10347,8 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>131</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11622,14 +10382,8 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>131</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11663,14 +10417,8 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>131</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11704,14 +10452,8 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>131</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11745,14 +10487,8 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>131</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11786,14 +10522,8 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>131</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11827,14 +10557,8 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>131</v>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11868,14 +10592,8 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>131</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11909,14 +10627,8 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>131</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11950,14 +10662,8 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>131</v>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11991,14 +10697,8 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>131</v>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -12032,14 +10732,8 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>131</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -12073,14 +10767,8 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>131</v>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -12114,14 +10802,8 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>131</v>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -12155,14 +10837,8 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>131</v>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -12196,14 +10872,8 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>131</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -12237,14 +10907,8 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>131</v>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -12278,14 +10942,8 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>131</v>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -12319,14 +10977,8 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>131</v>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -12360,14 +11012,8 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>131</v>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -12401,14 +11047,8 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>131</v>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -12442,14 +11082,8 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>131</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -12483,14 +11117,8 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>131</v>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -12524,14 +11152,8 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>131</v>
-      </c>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -12565,14 +11187,8 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>131</v>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -12606,14 +11222,8 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>131</v>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -12647,14 +11257,8 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>131</v>
-      </c>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -12688,14 +11292,8 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>131</v>
-      </c>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -12729,14 +11327,8 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>131</v>
-      </c>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -12770,14 +11362,8 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>131</v>
-      </c>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12811,14 +11397,8 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>131</v>
-      </c>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12852,14 +11432,8 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>131</v>
-      </c>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12893,14 +11467,8 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>131</v>
-      </c>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12934,14 +11502,8 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>131</v>
-      </c>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12975,14 +11537,8 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>131</v>
-      </c>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="inlineStr"/>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -13016,14 +11572,8 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>131</v>
-      </c>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="inlineStr"/>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -13057,14 +11607,8 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>131</v>
-      </c>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="inlineStr"/>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -13098,14 +11642,8 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
-        <v>131</v>
-      </c>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="inlineStr"/>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -13139,14 +11677,8 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>131</v>
-      </c>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="inlineStr"/>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -13180,14 +11712,8 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
-        <v>131</v>
-      </c>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="inlineStr"/>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -13221,14 +11747,8 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
-        <v>131</v>
-      </c>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="inlineStr"/>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -13262,14 +11782,8 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
-        <v>131</v>
-      </c>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="inlineStr"/>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -13303,14 +11817,8 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="n">
-        <v>131</v>
-      </c>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="inlineStr"/>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -13344,14 +11852,8 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
-        <v>131</v>
-      </c>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="inlineStr"/>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -13385,14 +11887,8 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="n">
-        <v>131</v>
-      </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="inlineStr"/>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -13426,14 +11922,8 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
-        <v>131</v>
-      </c>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="inlineStr"/>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -13467,14 +11957,8 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="n">
-        <v>131</v>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="inlineStr"/>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -13508,14 +11992,8 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="n">
-        <v>131</v>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="inlineStr"/>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -13549,14 +12027,8 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="n">
-        <v>131</v>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="inlineStr"/>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -13590,14 +12062,8 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="n">
-        <v>131</v>
-      </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="inlineStr"/>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -13631,14 +12097,8 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="n">
-        <v>131</v>
-      </c>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="inlineStr"/>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -13672,14 +12132,8 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="n">
-        <v>131</v>
-      </c>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="inlineStr"/>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -13713,14 +12167,8 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="n">
-        <v>131</v>
-      </c>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="inlineStr"/>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -13754,14 +12202,8 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="n">
-        <v>131</v>
-      </c>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="inlineStr"/>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -13795,14 +12237,8 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="n">
-        <v>131</v>
-      </c>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="inlineStr"/>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -13836,14 +12272,8 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="n">
-        <v>131</v>
-      </c>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="inlineStr"/>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -13877,14 +12307,8 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="n">
-        <v>131</v>
-      </c>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="inlineStr"/>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -13918,14 +12342,8 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="n">
-        <v>131</v>
-      </c>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="inlineStr"/>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -13956,19 +12374,13 @@
         <v>0</v>
       </c>
       <c r="I342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="n">
-        <v>131</v>
-      </c>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="inlineStr"/>
       <c r="M342" t="n">
-        <v>1.078969465648855</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -13997,7 +12409,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
@@ -14032,7 +12444,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>

--- a/BackTest/2019-10-31 BackTest FX.xlsx
+++ b/BackTest/2019-10-31 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -913,7 +913,7 @@
         <v>3884.940000000005</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>11195.4723</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>12523.6812</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>12523.6812</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>12523.6812</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>20773.33590000001</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>20773.33590000001</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>20773.33590000001</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>20234.6961</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>20234.6961</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>20234.6961</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>20234.6961</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>18523.4706</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>30380.3423</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>30380.3423</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>48347.39459726027</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>48347.39459726027</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>28843.75719726027</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>28843.75719726027</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>28843.75719726027</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>19970.37359726027</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>21901.40808001889</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>21901.40808001889</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>18858.91158001889</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>18858.91158001889</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>11144.77528001889</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>11461.90368001889</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>15535.66218001889</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>14535.66218001889</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>14535.66218001889</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>14535.66218001889</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>14535.66218001889</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>14535.66218001889</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>24364.10348001889</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>33252.10348001889</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>22959.20398001889</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>47138.15528691544</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>48875.00569726027</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>84228.60104455757</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>84228.60104455757</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>84228.60104455757</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>84228.60104455757</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>78065.32534455757</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>78064.32534455757</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>77928.32534455757</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>77930.32534455757</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>77930.32534455757</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>77930.32534455757</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>55770.45314455757</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>55770.45314455757</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>35255.02394455757</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>25087.27094455757</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>3008.25184455757</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>3009.25184455757</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>2452.77144455757</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-15421.30161196417</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-15421.30161196417</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-15421.30161196417</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-15421.30161196417</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-13996.64291196417</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-25761.63581196417</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-24923.13241196417</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-28986.70651196417</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-27253.13051196417</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-27253.13051196417</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-27063.00931196417</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-27063.00931196417</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-27029.00931196417</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-27029.00931196417</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-27029.00931196417</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-27028.00931196417</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-33675.79191196417</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -5137,10 +5137,14 @@
         <v>-201827.4707779216</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>129</v>
+      </c>
+      <c r="J144" t="n">
+        <v>129</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
@@ -5170,11 +5174,19 @@
         <v>-201827.4707779216</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>130</v>
+      </c>
+      <c r="J145" t="n">
+        <v>129</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +5218,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>129</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5632,7 +5650,7 @@
         <v>-235547.2168779215</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>130</v>
@@ -5669,9 +5687,11 @@
         <v>-242342.7008779215</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>130</v>
+      </c>
       <c r="J160" t="n">
         <v>130</v>
       </c>
@@ -5708,9 +5728,11 @@
         <v>-235908.4753779215</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>129</v>
+      </c>
       <c r="J161" t="n">
         <v>130</v>
       </c>
@@ -5747,9 +5769,11 @@
         <v>-235908.4753779215</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>130</v>
+      </c>
       <c r="J162" t="n">
         <v>130</v>
       </c>
@@ -5786,9 +5810,11 @@
         <v>-234122.6355779216</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>130</v>
+      </c>
       <c r="J163" t="n">
         <v>130</v>
       </c>
@@ -5825,9 +5851,11 @@
         <v>-234121.6355779216</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>131</v>
+      </c>
       <c r="J164" t="n">
         <v>130</v>
       </c>
@@ -5864,9 +5892,11 @@
         <v>-234121.6355779216</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>132</v>
+      </c>
       <c r="J165" t="n">
         <v>130</v>
       </c>
@@ -6098,9 +6128,11 @@
         <v>-237193.6160779216</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>131</v>
+      </c>
       <c r="J171" t="n">
         <v>130</v>
       </c>
@@ -6137,9 +6169,11 @@
         <v>-237193.6160779216</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>131</v>
+      </c>
       <c r="J172" t="n">
         <v>130</v>
       </c>
@@ -6176,7 +6210,7 @@
         <v>-238145.5494779216</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>131</v>
@@ -6217,7 +6251,7 @@
         <v>-238129.5494779216</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>130</v>
@@ -6258,7 +6292,7 @@
         <v>-248377.8370779216</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>132</v>
@@ -6299,7 +6333,7 @@
         <v>-248377.8370779216</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>130</v>
@@ -6340,7 +6374,7 @@
         <v>-248377.8370779216</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>130</v>
@@ -6381,7 +6415,7 @@
         <v>-248377.8370779216</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>130</v>
@@ -6422,7 +6456,7 @@
         <v>-248377.8370779216</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>130</v>
@@ -6463,7 +6497,7 @@
         <v>-259011.4073779216</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>130</v>
@@ -6504,7 +6538,7 @@
         <v>-249011.4073779216</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>129</v>
@@ -6545,7 +6579,7 @@
         <v>-249011.4073779216</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>130</v>
@@ -6586,7 +6620,7 @@
         <v>-248587.1031779216</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>130</v>
@@ -6627,7 +6661,7 @@
         <v>-237369.9525779216</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>132</v>
@@ -6668,7 +6702,7 @@
         <v>-238924.4019779216</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>136</v>
@@ -6709,9 +6743,11 @@
         <v>-238924.4019779216</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>135</v>
+      </c>
       <c r="J186" t="n">
         <v>130</v>
       </c>
@@ -6865,11 +6901,9 @@
         <v>-217028.7389779216</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>137</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
         <v>130</v>
       </c>
@@ -6906,11 +6940,9 @@
         <v>-217028.7389779216</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>138</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
         <v>130</v>
       </c>
@@ -15739,6 +15771,6 @@
       <c r="M417" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest FX.xlsx
+++ b/BackTest/2019-10-31 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1804,7 +1804,7 @@
         <v>19970.37359726027</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>21901.40808001889</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>21901.40808001889</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>18858.91158001889</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>18858.91158001889</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>11144.77528001889</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>11461.90368001889</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>15535.66218001889</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>14535.66218001889</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>14535.66218001889</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>14535.66218001889</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>14535.66218001889</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>14535.66218001889</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>24364.10348001889</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>33252.10348001889</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>22959.20398001889</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>47138.15528691544</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>48875.00569726027</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>84228.60104455757</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>84228.60104455757</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>84228.60104455757</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>84228.60104455757</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>78065.32534455757</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>78064.32534455757</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>77928.32534455757</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>77930.32534455757</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>77930.32534455757</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>77930.32534455757</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>55770.45314455757</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>55770.45314455757</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>35255.02394455757</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>25087.27094455757</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>3008.25184455757</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>3009.25184455757</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>2452.77144455757</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-15421.30161196417</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-15421.30161196417</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-15421.30161196417</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-15421.30161196417</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-13996.64291196417</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-25761.63581196417</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-24923.13241196417</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-28986.70651196417</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-27253.13051196417</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-27253.13051196417</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-27063.00931196417</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-27063.00931196417</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-27029.00931196417</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-27029.00931196417</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-27029.00931196417</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-27028.00931196417</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -5137,14 +5137,10 @@
         <v>-201827.4707779216</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>129</v>
-      </c>
-      <c r="J144" t="n">
-        <v>129</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
@@ -5174,19 +5170,11 @@
         <v>-201827.4707779216</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>130</v>
-      </c>
-      <c r="J145" t="n">
-        <v>129</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5218,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>129</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5650,14 +5632,10 @@
         <v>-235547.2168779215</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>130</v>
-      </c>
-      <c r="J159" t="n">
-        <v>130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
@@ -5687,665 +5665,551 @@
         <v>-242342.7008779215</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>129</v>
+      </c>
+      <c r="C161" t="n">
         <v>130</v>
       </c>
-      <c r="J160" t="n">
+      <c r="D161" t="n">
         <v>130</v>
       </c>
-      <c r="K160" t="inlineStr">
+      <c r="E161" t="n">
+        <v>129</v>
+      </c>
+      <c r="F161" t="n">
+        <v>6434.2255</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-235908.4753779215</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>130</v>
+      </c>
+      <c r="C162" t="n">
+        <v>130</v>
+      </c>
+      <c r="D162" t="n">
+        <v>130</v>
+      </c>
+      <c r="E162" t="n">
+        <v>130</v>
+      </c>
+      <c r="F162" t="n">
+        <v>3439.3952</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-235908.4753779215</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>131</v>
+      </c>
+      <c r="C163" t="n">
+        <v>131</v>
+      </c>
+      <c r="D163" t="n">
+        <v>131</v>
+      </c>
+      <c r="E163" t="n">
+        <v>131</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1785.8398</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-234122.6355779216</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>132</v>
+      </c>
+      <c r="C164" t="n">
+        <v>132</v>
+      </c>
+      <c r="D164" t="n">
+        <v>132</v>
+      </c>
+      <c r="E164" t="n">
+        <v>132</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-234121.6355779216</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>132</v>
+      </c>
+      <c r="C165" t="n">
+        <v>132</v>
+      </c>
+      <c r="D165" t="n">
+        <v>132</v>
+      </c>
+      <c r="E165" t="n">
+        <v>132</v>
+      </c>
+      <c r="F165" t="n">
+        <v>3673.2727</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-234121.6355779216</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>131</v>
+      </c>
+      <c r="C166" t="n">
+        <v>132</v>
+      </c>
+      <c r="D166" t="n">
+        <v>132</v>
+      </c>
+      <c r="E166" t="n">
+        <v>131</v>
+      </c>
+      <c r="F166" t="n">
+        <v>8036.5905</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-234121.6355779216</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>132</v>
+      </c>
+      <c r="C167" t="n">
+        <v>132</v>
+      </c>
+      <c r="D167" t="n">
+        <v>132</v>
+      </c>
+      <c r="E167" t="n">
+        <v>132</v>
+      </c>
+      <c r="F167" t="n">
+        <v>415.6115</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-234121.6355779216</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>132</v>
+      </c>
+      <c r="C168" t="n">
+        <v>132</v>
+      </c>
+      <c r="D168" t="n">
+        <v>132</v>
+      </c>
+      <c r="E168" t="n">
+        <v>132</v>
+      </c>
+      <c r="F168" t="n">
+        <v>935.126</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-234121.6355779216</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>132</v>
+      </c>
+      <c r="C169" t="n">
+        <v>132</v>
+      </c>
+      <c r="D169" t="n">
+        <v>132</v>
+      </c>
+      <c r="E169" t="n">
+        <v>132</v>
+      </c>
+      <c r="F169" t="n">
+        <v>693.4077</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-234121.6355779216</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>131</v>
+      </c>
+      <c r="C170" t="n">
+        <v>131</v>
+      </c>
+      <c r="D170" t="n">
+        <v>131</v>
+      </c>
+      <c r="E170" t="n">
+        <v>131</v>
+      </c>
+      <c r="F170" t="n">
+        <v>3071.9805</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-237193.6160779216</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>131</v>
+      </c>
+      <c r="C171" t="n">
+        <v>131</v>
+      </c>
+      <c r="D171" t="n">
+        <v>131</v>
+      </c>
+      <c r="E171" t="n">
+        <v>131</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-237193.6160779216</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>131</v>
+      </c>
+      <c r="C172" t="n">
+        <v>131</v>
+      </c>
+      <c r="D172" t="n">
+        <v>131</v>
+      </c>
+      <c r="E172" t="n">
+        <v>131</v>
+      </c>
+      <c r="F172" t="n">
+        <v>5592.785</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-237193.6160779216</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>130</v>
+      </c>
+      <c r="C173" t="n">
+        <v>130</v>
+      </c>
+      <c r="D173" t="n">
+        <v>130</v>
+      </c>
+      <c r="E173" t="n">
+        <v>130</v>
+      </c>
+      <c r="F173" t="n">
+        <v>951.9334</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-238145.5494779216</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>132</v>
+      </c>
+      <c r="C174" t="n">
+        <v>132</v>
+      </c>
+      <c r="D174" t="n">
+        <v>132</v>
+      </c>
+      <c r="E174" t="n">
+        <v>132</v>
+      </c>
+      <c r="F174" t="n">
+        <v>16</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-238129.5494779216</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>130</v>
+      </c>
+      <c r="C175" t="n">
+        <v>130</v>
+      </c>
+      <c r="D175" t="n">
+        <v>130</v>
+      </c>
+      <c r="E175" t="n">
+        <v>130</v>
+      </c>
+      <c r="F175" t="n">
+        <v>10248.2876</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-248377.8370779216</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>132</v>
+      </c>
+      <c r="J175" t="n">
+        <v>132</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>130</v>
+      </c>
+      <c r="C176" t="n">
+        <v>130</v>
+      </c>
+      <c r="D176" t="n">
+        <v>130</v>
+      </c>
+      <c r="E176" t="n">
+        <v>130</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1729.3208</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-248377.8370779216</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>130</v>
+      </c>
+      <c r="J176" t="n">
+        <v>132</v>
+      </c>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>129</v>
-      </c>
-      <c r="C161" t="n">
-        <v>130</v>
-      </c>
-      <c r="D161" t="n">
-        <v>130</v>
-      </c>
-      <c r="E161" t="n">
-        <v>129</v>
-      </c>
-      <c r="F161" t="n">
-        <v>6434.2255</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-235908.4753779215</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>129</v>
-      </c>
-      <c r="J161" t="n">
-        <v>130</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>130</v>
-      </c>
-      <c r="C162" t="n">
-        <v>130</v>
-      </c>
-      <c r="D162" t="n">
-        <v>130</v>
-      </c>
-      <c r="E162" t="n">
-        <v>130</v>
-      </c>
-      <c r="F162" t="n">
-        <v>3439.3952</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-235908.4753779215</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>130</v>
-      </c>
-      <c r="J162" t="n">
-        <v>130</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>131</v>
-      </c>
-      <c r="C163" t="n">
-        <v>131</v>
-      </c>
-      <c r="D163" t="n">
-        <v>131</v>
-      </c>
-      <c r="E163" t="n">
-        <v>131</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1785.8398</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-234122.6355779216</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>130</v>
-      </c>
-      <c r="J163" t="n">
-        <v>130</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>132</v>
-      </c>
-      <c r="C164" t="n">
-        <v>132</v>
-      </c>
-      <c r="D164" t="n">
-        <v>132</v>
-      </c>
-      <c r="E164" t="n">
-        <v>132</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-234121.6355779216</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>131</v>
-      </c>
-      <c r="J164" t="n">
-        <v>130</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>132</v>
-      </c>
-      <c r="C165" t="n">
-        <v>132</v>
-      </c>
-      <c r="D165" t="n">
-        <v>132</v>
-      </c>
-      <c r="E165" t="n">
-        <v>132</v>
-      </c>
-      <c r="F165" t="n">
-        <v>3673.2727</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-234121.6355779216</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>132</v>
-      </c>
-      <c r="J165" t="n">
-        <v>130</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>131</v>
-      </c>
-      <c r="C166" t="n">
-        <v>132</v>
-      </c>
-      <c r="D166" t="n">
-        <v>132</v>
-      </c>
-      <c r="E166" t="n">
-        <v>131</v>
-      </c>
-      <c r="F166" t="n">
-        <v>8036.5905</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-234121.6355779216</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>130</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>132</v>
-      </c>
-      <c r="C167" t="n">
-        <v>132</v>
-      </c>
-      <c r="D167" t="n">
-        <v>132</v>
-      </c>
-      <c r="E167" t="n">
-        <v>132</v>
-      </c>
-      <c r="F167" t="n">
-        <v>415.6115</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-234121.6355779216</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>130</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>132</v>
-      </c>
-      <c r="C168" t="n">
-        <v>132</v>
-      </c>
-      <c r="D168" t="n">
-        <v>132</v>
-      </c>
-      <c r="E168" t="n">
-        <v>132</v>
-      </c>
-      <c r="F168" t="n">
-        <v>935.126</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-234121.6355779216</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>130</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>132</v>
-      </c>
-      <c r="C169" t="n">
-        <v>132</v>
-      </c>
-      <c r="D169" t="n">
-        <v>132</v>
-      </c>
-      <c r="E169" t="n">
-        <v>132</v>
-      </c>
-      <c r="F169" t="n">
-        <v>693.4077</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-234121.6355779216</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>130</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>131</v>
-      </c>
-      <c r="C170" t="n">
-        <v>131</v>
-      </c>
-      <c r="D170" t="n">
-        <v>131</v>
-      </c>
-      <c r="E170" t="n">
-        <v>131</v>
-      </c>
-      <c r="F170" t="n">
-        <v>3071.9805</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-237193.6160779216</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>130</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>131</v>
-      </c>
-      <c r="C171" t="n">
-        <v>131</v>
-      </c>
-      <c r="D171" t="n">
-        <v>131</v>
-      </c>
-      <c r="E171" t="n">
-        <v>131</v>
-      </c>
-      <c r="F171" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-237193.6160779216</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>131</v>
-      </c>
-      <c r="J171" t="n">
-        <v>130</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>131</v>
-      </c>
-      <c r="C172" t="n">
-        <v>131</v>
-      </c>
-      <c r="D172" t="n">
-        <v>131</v>
-      </c>
-      <c r="E172" t="n">
-        <v>131</v>
-      </c>
-      <c r="F172" t="n">
-        <v>5592.785</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-237193.6160779216</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>131</v>
-      </c>
-      <c r="J172" t="n">
-        <v>130</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>130</v>
-      </c>
-      <c r="C173" t="n">
-        <v>130</v>
-      </c>
-      <c r="D173" t="n">
-        <v>130</v>
-      </c>
-      <c r="E173" t="n">
-        <v>130</v>
-      </c>
-      <c r="F173" t="n">
-        <v>951.9334</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-238145.5494779216</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>131</v>
-      </c>
-      <c r="J173" t="n">
-        <v>130</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>132</v>
-      </c>
-      <c r="C174" t="n">
-        <v>132</v>
-      </c>
-      <c r="D174" t="n">
-        <v>132</v>
-      </c>
-      <c r="E174" t="n">
-        <v>132</v>
-      </c>
-      <c r="F174" t="n">
-        <v>16</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-238129.5494779216</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>130</v>
-      </c>
-      <c r="J174" t="n">
-        <v>130</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>130</v>
-      </c>
-      <c r="C175" t="n">
-        <v>130</v>
-      </c>
-      <c r="D175" t="n">
-        <v>130</v>
-      </c>
-      <c r="E175" t="n">
-        <v>130</v>
-      </c>
-      <c r="F175" t="n">
-        <v>10248.2876</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-248377.8370779216</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>132</v>
-      </c>
-      <c r="J175" t="n">
-        <v>130</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>130</v>
-      </c>
-      <c r="C176" t="n">
-        <v>130</v>
-      </c>
-      <c r="D176" t="n">
-        <v>130</v>
-      </c>
-      <c r="E176" t="n">
-        <v>130</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1729.3208</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-248377.8370779216</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>130</v>
-      </c>
-      <c r="J176" t="n">
-        <v>130</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6380,11 +6244,11 @@
         <v>130</v>
       </c>
       <c r="J177" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L177" t="n">
@@ -6423,11 +6287,7 @@
       <c r="J178" t="n">
         <v>130</v>
       </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6466,7 +6326,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L179" t="n">
@@ -6507,7 +6367,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L180" t="n">
@@ -6702,11 +6562,9 @@
         <v>-238924.4019779216</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>136</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
         <v>130</v>
       </c>
@@ -6743,11 +6601,9 @@
         <v>-238924.4019779216</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
         <v>130</v>
       </c>
@@ -7135,7 +6991,7 @@
         <v>-27968.41137792155</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
@@ -7143,13 +6999,15 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>1.102692307692308</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1.15625</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7174,17 +7032,11 @@
         <v>-32380.37417792156</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>130</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7216,14 +7068,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>130</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7255,14 +7101,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>130</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7294,14 +7134,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>130</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7333,14 +7167,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>130</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7372,14 +7200,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>130</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7411,14 +7233,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>130</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7450,14 +7266,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>130</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7489,14 +7299,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>130</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7528,14 +7332,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>130</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7567,14 +7365,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>130</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7606,14 +7398,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>130</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7645,14 +7431,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>130</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7684,14 +7464,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>130</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7723,14 +7497,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>130</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7762,14 +7530,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>130</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7801,14 +7563,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>130</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7840,14 +7596,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>130</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7879,14 +7629,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>130</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7918,14 +7662,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>130</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7957,14 +7695,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>130</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7993,17 +7725,11 @@
         <v>111876.6954657227</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>130</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8032,17 +7758,11 @@
         <v>111876.6954657227</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>130</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8071,17 +7791,11 @@
         <v>111876.6954657227</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>130</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8110,17 +7824,11 @@
         <v>111876.6954657227</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>130</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8149,17 +7857,11 @@
         <v>111876.6954657227</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>130</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8188,17 +7890,11 @@
         <v>106946.7745657227</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>130</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8227,17 +7923,11 @@
         <v>108361.8050657227</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>130</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8269,14 +7959,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>130</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8308,14 +7992,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>130</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8344,17 +8022,11 @@
         <v>108362.8050657227</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>130</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8383,17 +8055,11 @@
         <v>122997.4827498954</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>130</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8422,17 +8088,11 @@
         <v>121963.3897498954</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>130</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8461,17 +8121,11 @@
         <v>122278.9190498954</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>130</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8503,14 +8157,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>130</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8542,14 +8190,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>130</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8581,14 +8223,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>130</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8620,14 +8256,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>130</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8659,14 +8289,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>130</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8698,14 +8322,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>130</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8737,14 +8355,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>130</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8776,14 +8388,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>130</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8815,14 +8421,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>130</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8854,14 +8454,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>130</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8893,14 +8487,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>130</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8932,14 +8520,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>130</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8971,14 +8553,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>130</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9010,14 +8586,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>130</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9049,14 +8619,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>130</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9088,14 +8652,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>130</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9127,14 +8685,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>130</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9166,14 +8718,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>130</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9205,14 +8751,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>130</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9244,14 +8784,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>130</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9283,14 +8817,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>130</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9322,14 +8850,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>130</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9361,14 +8883,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>130</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9400,14 +8916,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>130</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9439,14 +8949,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>130</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9478,14 +8982,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>130</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9517,14 +9015,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>130</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9556,14 +9048,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>130</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9595,14 +9081,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>130</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9634,14 +9114,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>130</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9673,14 +9147,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>130</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9712,14 +9180,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>130</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9751,14 +9213,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>130</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9790,14 +9246,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>130</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9829,14 +9279,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>130</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9868,14 +9312,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>130</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9907,14 +9345,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>130</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9946,14 +9378,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>130</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9985,14 +9411,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>130</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10024,14 +9444,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>130</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10063,14 +9477,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>130</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10102,14 +9510,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>130</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10141,14 +9543,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>130</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10180,14 +9576,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>130</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10219,14 +9609,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>130</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10258,14 +9642,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>130</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10297,14 +9675,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>130</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10336,14 +9708,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>130</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10375,14 +9741,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>130</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10414,14 +9774,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>130</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10453,14 +9807,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>130</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10492,14 +9840,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>130</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10531,14 +9873,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>130</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10570,14 +9906,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>130</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10609,14 +9939,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>130</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10648,14 +9972,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>130</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10687,14 +10005,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>130</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10726,14 +10038,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>130</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10765,14 +10071,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>130</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10804,14 +10104,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>130</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10843,14 +10137,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>130</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10882,14 +10170,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>130</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10921,14 +10203,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>130</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10960,14 +10236,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>130</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10999,14 +10269,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>130</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11038,14 +10302,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>130</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11077,14 +10335,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>130</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11116,14 +10368,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>130</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11155,14 +10401,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>130</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11194,14 +10434,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>130</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11233,14 +10467,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>130</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11272,14 +10500,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>130</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11311,14 +10533,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>130</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11350,14 +10566,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>130</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11389,14 +10599,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>130</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11428,14 +10632,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>130</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11467,14 +10665,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>130</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11506,14 +10698,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>130</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11545,14 +10731,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>130</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11584,14 +10764,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>130</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11623,14 +10797,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>130</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11662,14 +10830,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>130</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11701,14 +10863,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>130</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11740,14 +10896,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>130</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11779,14 +10929,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>130</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11818,14 +10962,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>130</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11857,14 +10995,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>130</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11896,14 +11028,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>130</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11935,14 +11061,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>130</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11974,14 +11094,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>130</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12013,14 +11127,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>130</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12052,14 +11160,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>130</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12091,14 +11193,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>130</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12130,14 +11226,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>130</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12169,14 +11259,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>130</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12208,14 +11292,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>130</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12247,14 +11325,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>130</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12286,14 +11358,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>130</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12325,14 +11391,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>130</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12364,14 +11424,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>130</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12403,14 +11457,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>130</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12442,14 +11490,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>130</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12481,14 +11523,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>130</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12520,14 +11556,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>130</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12559,14 +11589,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>130</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12598,14 +11622,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>130</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12637,14 +11655,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>130</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12676,14 +11688,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>130</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12715,14 +11721,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>130</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12754,14 +11754,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>130</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12793,14 +11787,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>130</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12832,14 +11820,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>130</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12871,14 +11853,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>130</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12910,14 +11886,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>130</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12949,14 +11919,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>130</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12988,14 +11952,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>130</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13027,14 +11985,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>130</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13066,14 +12018,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>130</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13105,14 +12051,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>130</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13144,14 +12084,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>130</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13183,14 +12117,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>130</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13222,14 +12150,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>130</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13261,14 +12183,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>130</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13300,14 +12216,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>130</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13339,14 +12249,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>130</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13378,14 +12282,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>130</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13417,14 +12315,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>130</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13456,14 +12348,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>130</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13495,14 +12381,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>130</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13534,14 +12414,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>130</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13573,14 +12447,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>130</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13612,14 +12480,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>130</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13651,14 +12513,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>130</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13690,14 +12546,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>130</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13729,14 +12579,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>130</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13768,14 +12612,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>130</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13807,14 +12645,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>130</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13846,14 +12678,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>130</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13885,14 +12711,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>130</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13924,14 +12744,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>130</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13963,14 +12777,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>130</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14002,14 +12810,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>130</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14041,14 +12843,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>130</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14080,14 +12876,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>130</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14119,14 +12909,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>130</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14158,14 +12942,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>130</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14197,14 +12975,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>130</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14236,14 +13008,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>130</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14275,14 +13041,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>130</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14314,14 +13074,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>130</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14353,14 +13107,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>130</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14392,14 +13140,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>130</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14431,14 +13173,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>130</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14470,14 +13206,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>130</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14509,14 +13239,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>130</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14548,14 +13272,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>130</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14587,14 +13305,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>130</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14626,14 +13338,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>130</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14665,14 +13371,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>130</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14704,14 +13404,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>130</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14743,14 +13437,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>130</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14782,14 +13470,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>130</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14821,14 +13503,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>130</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14860,14 +13536,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>130</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14899,14 +13569,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>130</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14938,14 +13602,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>130</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14977,14 +13635,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>130</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15013,17 +13665,11 @@
         <v>80331.07824989535</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>130</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15052,17 +13698,11 @@
         <v>79274.74022172633</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>130</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15091,17 +13731,11 @@
         <v>79274.74022172633</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>130</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15130,17 +13764,11 @@
         <v>79274.74022172633</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>130</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15169,17 +13797,11 @@
         <v>79224.74022172633</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>130</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15208,17 +13830,11 @@
         <v>77117.40222172633</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>130</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15247,17 +13863,11 @@
         <v>77118.40222172633</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>130</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15286,17 +13896,11 @@
         <v>76468.60132172632</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>130</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15325,17 +13929,11 @@
         <v>76468.60132172632</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>130</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15367,14 +13965,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>130</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15406,14 +13998,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>130</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15445,14 +14031,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>130</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15484,14 +14064,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>130</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15523,14 +14097,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>130</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15562,14 +14130,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>130</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15601,14 +14163,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>130</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15640,14 +14196,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>130</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15679,14 +14229,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>130</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15718,14 +14262,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>130</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15757,20 +14295,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>130</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
       <c r="M417" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest FX.xlsx
+++ b/BackTest/2019-10-31 BackTest FX.xlsx
@@ -1705,7 +1705,7 @@
         <v>28843.75719726027</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>19970.37359726027</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>21901.40808001889</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>21901.40808001889</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>18858.91158001889</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>14535.66218001889</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>14535.66218001889</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>14535.66218001889</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>14535.66218001889</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>33252.10348001889</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>22959.20398001889</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>48875.00569726027</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>84228.60104455757</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>84228.60104455757</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>84228.60104455757</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>84228.60104455757</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>78065.32534455757</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>78064.32534455757</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>77928.32534455757</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>77930.32534455757</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>77930.32534455757</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>77930.32534455757</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>55770.45314455757</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>55770.45314455757</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -5698,11 +5698,17 @@
         <v>-235908.4753779215</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>129</v>
+      </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +5737,17 @@
         <v>-235908.4753779215</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>130</v>
+      </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +5776,17 @@
         <v>-234122.6355779216</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>130</v>
+      </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +5815,17 @@
         <v>-234121.6355779216</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>131</v>
+      </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +5854,17 @@
         <v>-234121.6355779216</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>132</v>
+      </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5867,7 +5897,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5900,7 +5934,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5933,7 +5971,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5966,7 +6008,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5999,7 +6045,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6032,7 +6082,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6065,7 +6119,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6098,7 +6156,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6127,11 +6189,17 @@
         <v>-238129.5494779216</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>130</v>
+      </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6160,15 +6228,15 @@
         <v>-248377.8370779216</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>132</v>
-      </c>
-      <c r="J175" t="n">
-        <v>132</v>
-      </c>
-      <c r="K175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6202,12 +6270,10 @@
       <c r="I176" t="n">
         <v>130</v>
       </c>
-      <c r="J176" t="n">
-        <v>132</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L176" t="n">
@@ -6243,12 +6309,10 @@
       <c r="I177" t="n">
         <v>130</v>
       </c>
-      <c r="J177" t="n">
-        <v>132</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L177" t="n">
@@ -6284,10 +6348,12 @@
       <c r="I178" t="n">
         <v>130</v>
       </c>
-      <c r="J178" t="n">
-        <v>130</v>
-      </c>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6321,12 +6387,10 @@
       <c r="I179" t="n">
         <v>130</v>
       </c>
-      <c r="J179" t="n">
-        <v>130</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L179" t="n">
@@ -6362,12 +6426,10 @@
       <c r="I180" t="n">
         <v>130</v>
       </c>
-      <c r="J180" t="n">
-        <v>130</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L180" t="n">
@@ -6403,9 +6465,7 @@
       <c r="I181" t="n">
         <v>129</v>
       </c>
-      <c r="J181" t="n">
-        <v>130</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6444,9 +6504,7 @@
       <c r="I182" t="n">
         <v>130</v>
       </c>
-      <c r="J182" t="n">
-        <v>130</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6485,9 +6543,7 @@
       <c r="I183" t="n">
         <v>130</v>
       </c>
-      <c r="J183" t="n">
-        <v>130</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6526,9 +6582,7 @@
       <c r="I184" t="n">
         <v>132</v>
       </c>
-      <c r="J184" t="n">
-        <v>130</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6562,12 +6616,12 @@
         <v>-238924.4019779216</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>130</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>136</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6604,9 +6658,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>130</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6640,12 +6692,12 @@
         <v>-227905.3787779216</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>130</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>135</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6679,12 +6731,12 @@
         <v>-219648.5504779216</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>130</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>136</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6718,12 +6770,12 @@
         <v>-219648.5504779216</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>130</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>137</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6760,9 +6812,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>130</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6799,9 +6849,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>130</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6838,9 +6886,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>130</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6877,9 +6923,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>130</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6916,9 +6960,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>130</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6955,9 +6997,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>130</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6991,23 +7031,19 @@
         <v>-27968.41137792155</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>130</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L196" t="n">
-        <v>1.102692307692308</v>
-      </c>
-      <c r="M196" t="n">
-        <v>1.15625</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7032,11 +7068,15 @@
         <v>-32380.37417792156</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7069,7 +7109,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7102,7 +7146,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7135,7 +7183,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7168,7 +7220,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7201,7 +7257,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7234,7 +7294,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7267,7 +7331,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7300,7 +7368,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7333,7 +7405,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7366,7 +7442,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7399,7 +7479,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7432,7 +7516,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7465,7 +7553,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7498,7 +7590,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7531,7 +7627,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7564,7 +7664,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7597,7 +7701,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7630,7 +7738,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7663,7 +7775,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7696,7 +7812,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7725,11 +7845,15 @@
         <v>111876.6954657227</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7758,11 +7882,15 @@
         <v>111876.6954657227</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7791,11 +7919,15 @@
         <v>111876.6954657227</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7824,11 +7956,15 @@
         <v>111876.6954657227</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7857,11 +7993,15 @@
         <v>111876.6954657227</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7890,11 +8030,15 @@
         <v>106946.7745657227</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7923,11 +8067,15 @@
         <v>108361.8050657227</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7960,7 +8108,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7993,7 +8145,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8022,11 +8178,15 @@
         <v>108362.8050657227</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8055,11 +8215,15 @@
         <v>122997.4827498954</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8088,11 +8252,15 @@
         <v>121963.3897498954</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8121,11 +8289,15 @@
         <v>122278.9190498954</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8158,7 +8330,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8191,7 +8367,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8224,7 +8404,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8257,7 +8441,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8290,7 +8478,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8323,7 +8515,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8356,7 +8552,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8389,7 +8589,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8422,7 +8626,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8455,7 +8663,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8488,7 +8700,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8521,7 +8737,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8554,7 +8774,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8587,7 +8811,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8620,7 +8848,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8653,7 +8885,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8686,7 +8922,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8719,7 +8959,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8752,7 +8996,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8785,7 +9033,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8818,7 +9070,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8851,7 +9107,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8884,7 +9144,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8917,7 +9181,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8950,7 +9218,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8983,7 +9255,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9016,7 +9292,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9049,7 +9329,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9082,7 +9366,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9115,7 +9403,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9148,7 +9440,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9181,7 +9477,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9214,7 +9514,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9247,7 +9551,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9280,7 +9588,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9313,7 +9625,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9346,7 +9662,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9379,7 +9699,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9412,7 +9736,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9445,7 +9773,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9478,7 +9810,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9511,7 +9847,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9544,7 +9884,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9577,7 +9921,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9610,7 +9958,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9643,7 +9995,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9676,7 +10032,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9709,7 +10069,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9742,7 +10106,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9775,7 +10143,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9808,7 +10180,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9841,7 +10217,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9874,7 +10254,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9907,7 +10291,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9940,7 +10328,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9973,7 +10365,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10006,7 +10402,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10039,7 +10439,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10072,7 +10476,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10105,7 +10513,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10138,7 +10550,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10171,7 +10587,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10204,7 +10624,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10237,7 +10661,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10270,7 +10698,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10303,7 +10735,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10336,7 +10772,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10369,7 +10809,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10402,7 +10846,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10435,7 +10883,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10468,7 +10920,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10501,7 +10957,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10534,7 +10994,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10567,7 +11031,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10600,7 +11068,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10633,7 +11105,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10666,7 +11142,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10699,7 +11179,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10732,7 +11216,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10765,7 +11253,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10798,7 +11290,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10831,7 +11327,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10864,7 +11364,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10897,7 +11401,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10930,7 +11438,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10963,7 +11475,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10996,7 +11512,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11029,7 +11549,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11062,7 +11586,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11095,7 +11623,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11128,7 +11660,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11161,7 +11697,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11194,7 +11734,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11227,7 +11771,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11260,7 +11808,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11293,7 +11845,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11326,7 +11882,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11359,7 +11919,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11392,7 +11956,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11425,7 +11993,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11458,7 +12030,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11491,7 +12067,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11524,7 +12104,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11557,7 +12141,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11590,7 +12178,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11623,7 +12215,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11656,7 +12252,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11689,7 +12289,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11722,7 +12326,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11755,7 +12363,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11788,7 +12400,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11821,7 +12437,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11854,7 +12474,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11887,7 +12511,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11920,7 +12548,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11953,7 +12585,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11986,7 +12622,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12019,7 +12659,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12052,7 +12696,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12085,7 +12733,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12118,7 +12770,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12151,7 +12807,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12184,7 +12844,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12217,7 +12881,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12250,7 +12918,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12283,7 +12955,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12316,7 +12992,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12349,7 +13029,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12382,7 +13066,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12415,7 +13103,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12448,7 +13140,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12481,7 +13177,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12514,7 +13214,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12547,7 +13251,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12580,7 +13288,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12613,7 +13325,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12646,7 +13362,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12679,7 +13399,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12712,7 +13436,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12745,7 +13473,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12778,7 +13510,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12811,7 +13547,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12844,7 +13584,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12877,7 +13621,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12910,7 +13658,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12943,7 +13695,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12976,7 +13732,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13009,7 +13769,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13042,7 +13806,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13075,7 +13843,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13108,7 +13880,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13141,7 +13917,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13174,7 +13954,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13207,7 +13991,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13240,7 +14028,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13273,7 +14065,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13306,7 +14102,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13339,7 +14139,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13372,7 +14176,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13405,7 +14213,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13438,7 +14250,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13471,7 +14287,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13504,7 +14324,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13537,7 +14361,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13570,7 +14398,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13603,7 +14435,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13636,7 +14472,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13665,11 +14505,15 @@
         <v>80331.07824989535</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13698,11 +14542,15 @@
         <v>79274.74022172633</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13731,11 +14579,15 @@
         <v>79274.74022172633</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13764,11 +14616,15 @@
         <v>79274.74022172633</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13797,11 +14653,15 @@
         <v>79224.74022172633</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13830,11 +14690,15 @@
         <v>77117.40222172633</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13863,11 +14727,15 @@
         <v>77118.40222172633</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13896,11 +14764,15 @@
         <v>76468.60132172632</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13929,11 +14801,15 @@
         <v>76468.60132172632</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13966,7 +14842,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13999,7 +14879,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14032,7 +14916,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14065,7 +14953,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14098,7 +14990,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14131,7 +15027,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14164,7 +15064,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14197,7 +15101,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14230,7 +15138,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14263,7 +15175,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14296,7 +15212,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
